--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4143919.274781293</v>
+        <v>4139532.681782661</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205895</v>
+        <v>9964927.035287928</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.725943109</v>
+        <v>430763.7823717228</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7217218.223457729</v>
+        <v>7217371.228995722</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>119.8298937360216</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>129.0326605836838</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>74.56458132120282</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>91.22205962245668</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>45.70312489655948</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>28.47435476823763</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>358.0581061574556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>64.76935934992291</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>153.8100533453327</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491429</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>131.6554731767148</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127578</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081977</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876461</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771671</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440918</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627619</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484206</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>189.7939625335508</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>163.5088189003844</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127578</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081977</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374743</v>
+        <v>199.197056837475</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876464</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>91.23885045890985</v>
+        <v>89.53408223745137</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771671</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919541</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108371</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627619</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484206</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.563092004545</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.21639512126879</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771671</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919541</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440945</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108412</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584593</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>26.24710713842049</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>91.23885045891228</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771671</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440945</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108412</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584593</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484206</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>145.484427633588</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771671</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919541</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440945</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584593</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.481994462762</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1854515484206</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
-        <v>153.9923248262218</v>
+        <v>119.8558466642954</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2651,7 +2651,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T27" t="n">
         <v>188.3907690366107</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.1807515910839</v>
+        <v>2.119387955707412</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
-        <v>226.5630621369937</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8432760127576</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2888,7 +2888,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>11.93883531159615</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>89.53408223745137</v>
       </c>
       <c r="H31" t="n">
         <v>140.4539897919539</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3125,7 +3125,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>104.0060283129267</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>7.729505493042338</v>
       </c>
       <c r="H34" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081973</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>131.7965712184847</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>64.44601915223835</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
         <v>286.1854515484204</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3520,7 +3520,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>89.53408223745137</v>
       </c>
       <c r="H40" t="n">
         <v>140.4539897919539</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>18.56378395870614</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9088959876461</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>86.27179222793485</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>42.02007503740352</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.15100857094668</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>62.95329610410707</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1139.146815977588</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>1139.146815977588</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>1139.146815977588</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>753.3585633793437</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>342.3726585897361</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>328.449254528327</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017521</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y2" t="n">
-        <v>1525.74665604171</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332.1920961943574</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>332.1920961943574</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>332.1920961943574</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>184.2790026119643</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>184.2790026119643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>184.2790026119643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245972</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y4" t="n">
-        <v>513.8405610245972</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>770.969123535386</v>
       </c>
       <c r="C5" t="n">
-        <v>787.7948591932184</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
         <v>402.0066065949742</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2605.005596450084</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2605.005596450084</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2273.942709106514</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1921.174053836399</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1547.708295575319</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1157.568963599508</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036423</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.8809182883532</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="C7" t="n">
-        <v>295.8809182883532</v>
+        <v>488.3016257164451</v>
       </c>
       <c r="D7" t="n">
-        <v>145.7642788760175</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E7" t="n">
-        <v>145.7642788760175</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>145.7642788760175</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>145.7642788760175</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>295.8809182883532</v>
+        <v>669.9500905466848</v>
       </c>
       <c r="W7" t="n">
-        <v>295.8809182883532</v>
+        <v>669.9500905466848</v>
       </c>
       <c r="X7" t="n">
-        <v>295.8809182883532</v>
+        <v>669.9500905466848</v>
       </c>
       <c r="Y7" t="n">
-        <v>295.8809182883532</v>
+        <v>669.9500905466848</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1352.258819987542</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1352.258819987542</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>993.993121380792</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656315</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2300.662608371699</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312744</v>
+        <v>1947.893953101585</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.858660051664</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y8" t="n">
-        <v>1738.858660051664</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>323.2572191628423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>323.2572191628423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>323.2572191628423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>323.2572191628423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E11" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127632</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
         <v>373.34422365072</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297608</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403615</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R11" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>93.84834815160706</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L12" t="n">
-        <v>915.089423558717</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>1507.107777810845</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N12" t="n">
-        <v>1868.341358050533</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O12" t="n">
-        <v>1868.341358050533</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P12" t="n">
-        <v>2287.924876476609</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q12" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>807.4326525856525</v>
+        <v>558.0691298872742</v>
       </c>
       <c r="C13" t="n">
-        <v>638.4964696577454</v>
+        <v>558.0691298872742</v>
       </c>
       <c r="D13" t="n">
-        <v>638.4964696577454</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="E13" t="n">
-        <v>490.5833760753521</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F13" t="n">
-        <v>343.6934285774416</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G13" t="n">
-        <v>176.4792337520204</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H13" t="n">
-        <v>176.4792337520204</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I13" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411608</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117243</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948584</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M13" t="n">
         <v>1239.450608139318</v>
@@ -5214,37 +5214,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.699365782258</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335693</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.412499335693</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2246.242309074623</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T13" t="n">
-        <v>2026.563526789005</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U13" t="n">
-        <v>1737.487313103732</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V13" t="n">
-        <v>1482.802824897845</v>
+        <v>1477.916894796022</v>
       </c>
       <c r="W13" t="n">
-        <v>1193.385654860884</v>
+        <v>1188.499724759061</v>
       </c>
       <c r="X13" t="n">
-        <v>1028.225231729183</v>
+        <v>960.5101738610441</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.4326525856525</v>
+        <v>739.717594717514</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831372</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963568</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127632</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015205</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892036</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294978</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234016</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.583449151122</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.44548561026</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297608</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895494</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160706</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160706</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L15" t="n">
-        <v>584.5806809953583</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M15" t="n">
-        <v>965.2563978701601</v>
+        <v>833.5146841555808</v>
       </c>
       <c r="N15" t="n">
-        <v>1587.352361269496</v>
+        <v>1455.610647554917</v>
       </c>
       <c r="O15" t="n">
-        <v>2134.22883626969</v>
+        <v>2002.487122555111</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2422.070640981187</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495.0957149475979</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>495.0957149475979</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D16" t="n">
-        <v>495.0957149475979</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E16" t="n">
-        <v>495.0957149475979</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F16" t="n">
-        <v>402.9352599385981</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G16" t="n">
-        <v>235.7210651131768</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411608</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117243</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948584</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M16" t="n">
         <v>1239.450608139318</v>
@@ -5451,37 +5451,37 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782258</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335693</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294194</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033125</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747506</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062233</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856346</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.526309819385</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>897.536758921368</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.7441797778378</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2318.261193831371</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963573</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127637</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507183</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074383975</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944169</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883203</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.583449151131</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610266</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
         <v>3821.234779402499</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.861033895493</v>
@@ -5570,61 +5570,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C18" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D18" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E18" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F18" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G18" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160706</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160706</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>584.580680995356</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.599035247481</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N18" t="n">
-        <v>1798.694998646814</v>
+        <v>1684.833368709899</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.571473647006</v>
+        <v>2231.709843710094</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S18" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U18" t="n">
         <v>2016.877442379908</v>
@@ -5636,7 +5636,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y18" t="n">
         <v>1111.876178449477</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1099.422008959559</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C19" t="n">
-        <v>930.4858260316514</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D19" t="n">
-        <v>780.3691866193155</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E19" t="n">
-        <v>632.4560930369223</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F19" t="n">
-        <v>485.5661455390118</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G19" t="n">
-        <v>318.3519507135906</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H19" t="n">
-        <v>176.4792337520207</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411601</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117226</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948553</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139313</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931018</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946046</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.69936578225</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335684</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294184</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033115</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T19" t="n">
-        <v>2178.382964033115</v>
+        <v>2335.040924861448</v>
       </c>
       <c r="U19" t="n">
-        <v>2178.382964033115</v>
+        <v>2045.964711176174</v>
       </c>
       <c r="V19" t="n">
-        <v>1923.698475827228</v>
+        <v>1791.280222970287</v>
       </c>
       <c r="W19" t="n">
-        <v>1634.281305790267</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="X19" t="n">
-        <v>1406.291754892249</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1185.499175748719</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963575</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G20" t="n">
-        <v>380.275713812764</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507183</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074383975</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944169</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883203</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800305</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.64596425944</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297611</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403616</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3082.265894313995</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C21" t="n">
-        <v>2907.812865032868</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D21" t="n">
-        <v>2758.878455371617</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E21" t="n">
-        <v>2599.641000366161</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F21" t="n">
-        <v>2453.106442393046</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G21" t="n">
-        <v>2317.326192152976</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>2232.453401036193</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>2232.453401036193</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>2232.453401036193</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>2562.96214359955</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L21" t="n">
-        <v>3053.694476443299</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M21" t="n">
-        <v>3645.712830695424</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N21" t="n">
-        <v>4267.808794094757</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O21" t="n">
-        <v>4426.529929361198</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P21" t="n">
-        <v>4426.529929361198</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q21" t="n">
-        <v>4657.091203346444</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R21" t="n">
-        <v>4692.417407580353</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S21" t="n">
-        <v>4573.80570283771</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>4383.511996740123</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U21" t="n">
-        <v>4155.482495264494</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V21" t="n">
-        <v>3920.330387032751</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W21" t="n">
-        <v>3666.09303030455</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>3458.241530099017</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y21" t="n">
-        <v>3250.481231334063</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>788.6131090700816</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C22" t="n">
-        <v>788.6131090700816</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D22" t="n">
-        <v>638.4964696577457</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E22" t="n">
-        <v>490.5833760753525</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F22" t="n">
-        <v>343.693428577442</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G22" t="n">
-        <v>176.4792337520207</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H22" t="n">
-        <v>176.4792337520207</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411601</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117226</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948553</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139313</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931018</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946046</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.69936578225</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335684</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294184</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033115</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2178.382964033115</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1889.306750347841</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1634.622262141954</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1345.205092104994</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>1117.215541206976</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>970.2615739003214</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5977,43 +5977,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507183</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074383975</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294994</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234028</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.58344915113</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610265</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.75143429761</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403615</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
         <v>4606.9501443472</v>
@@ -6044,61 +6044,61 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C24" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D24" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E24" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F24" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034519</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>241.4963299034519</v>
+        <v>373.2380436180322</v>
       </c>
       <c r="L24" t="n">
-        <v>732.2286627472009</v>
+        <v>373.2380436180322</v>
       </c>
       <c r="M24" t="n">
-        <v>1324.247016999326</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N24" t="n">
-        <v>1587.352361269501</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O24" t="n">
-        <v>2134.228836269693</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S24" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U24" t="n">
         <v>2016.877442379908</v>
@@ -6110,7 +6110,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.876178449477</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3214.513823621833</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C25" t="n">
-        <v>3045.577640693926</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D25" t="n">
-        <v>2895.46100128159</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E25" t="n">
-        <v>2895.46100128159</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F25" t="n">
-        <v>2748.57105378368</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G25" t="n">
-        <v>2581.356858958259</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H25" t="n">
-        <v>2439.484141996689</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I25" t="n">
-        <v>2356.853256396275</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>2435.835379285828</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>2695.464106256391</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
-        <v>3083.225924339524</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
-        <v>3502.455516383981</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N25" t="n">
-        <v>3917.151382175687</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>4284.173839190715</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>4574.704274026918</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>4692.417407580352</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>4692.417407580352</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S25" t="n">
-        <v>4509.247217319282</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T25" t="n">
-        <v>4289.568435033663</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="U25" t="n">
-        <v>4000.49222134839</v>
+        <v>2140.336285650421</v>
       </c>
       <c r="V25" t="n">
-        <v>3844.944418493621</v>
+        <v>2019.269773868305</v>
       </c>
       <c r="W25" t="n">
-        <v>3844.944418493621</v>
+        <v>1729.852603831344</v>
       </c>
       <c r="X25" t="n">
-        <v>3616.954867595603</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="Y25" t="n">
-        <v>3396.162288452073</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="26">
@@ -6202,55 +6202,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963571</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K26" t="n">
-        <v>893.7741287892195</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294992</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234026</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.58344915113</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610265</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S26" t="n">
         <v>4606.950144347201</v>
@@ -6259,19 +6259,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="27">
@@ -6281,61 +6281,61 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C27" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D27" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E27" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F27" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G27" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J27" t="n">
-        <v>241.4963299034522</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>572.0050724668096</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L27" t="n">
-        <v>1062.737405310559</v>
+        <v>373.2380436180322</v>
       </c>
       <c r="M27" t="n">
-        <v>1654.755759562684</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N27" t="n">
-        <v>2276.851722962018</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O27" t="n">
-        <v>2518.486150461857</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P27" t="n">
-        <v>2518.486150461857</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
-        <v>2518.486150461857</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S27" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U27" t="n">
         <v>2016.877442379908</v>
@@ -6347,7 +6347,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y27" t="n">
         <v>1111.876178449477</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3362.426917204224</v>
+        <v>560.8142640742428</v>
       </c>
       <c r="C28" t="n">
-        <v>3193.490734276317</v>
+        <v>391.8780811463359</v>
       </c>
       <c r="D28" t="n">
-        <v>3043.374094863982</v>
+        <v>241.7614417340002</v>
       </c>
       <c r="E28" t="n">
-        <v>2895.461001281588</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="F28" t="n">
-        <v>2748.571053783678</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G28" t="n">
-        <v>2581.356858958257</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H28" t="n">
-        <v>2439.484141996687</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I28" t="n">
-        <v>2356.853256396274</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
-        <v>2435.835379285827</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K28" t="n">
-        <v>2695.46410625639</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L28" t="n">
-        <v>3083.225924339523</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
-        <v>3502.455516383981</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N28" t="n">
-        <v>3917.151382175687</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>4284.173839190716</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>4574.704274026919</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>4692.417407580353</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>4624.558062538854</v>
+        <v>2427.271703420839</v>
       </c>
       <c r="S28" t="n">
-        <v>4441.387872277784</v>
+        <v>2244.101513159769</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.709089992167</v>
+        <v>2024.422730874151</v>
       </c>
       <c r="U28" t="n">
-        <v>3992.857512076012</v>
+        <v>1735.346517188878</v>
       </c>
       <c r="V28" t="n">
-        <v>3992.857512076012</v>
+        <v>1480.662028982991</v>
       </c>
       <c r="W28" t="n">
-        <v>3992.857512076012</v>
+        <v>1191.24485894603</v>
       </c>
       <c r="X28" t="n">
-        <v>3764.867961177994</v>
+        <v>963.2553080480127</v>
       </c>
       <c r="Y28" t="n">
-        <v>3544.075382034464</v>
+        <v>742.4627289044826</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E29" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G29" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160707</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J29" t="n">
-        <v>424.1437450015218</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7741287892036</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L29" t="n">
-        <v>1513.293909294978</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234016</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.583449151122</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.44548561026</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297608</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403615</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J30" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K30" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="L30" t="n">
-        <v>732.2286627472042</v>
+        <v>584.5806809953584</v>
       </c>
       <c r="M30" t="n">
-        <v>1324.247016999332</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N30" t="n">
-        <v>1946.342980398668</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O30" t="n">
-        <v>2493.219455398862</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P30" t="n">
-        <v>2493.219455398862</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.812354695766</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3122.919278283569</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>3110.859848675896</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D31" t="n">
-        <v>2960.74320926356</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E31" t="n">
-        <v>2812.830115681167</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F31" t="n">
-        <v>2665.940168183257</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G31" t="n">
-        <v>2498.725973357836</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
-        <v>2356.853256396266</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I31" t="n">
-        <v>2356.853256396266</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J31" t="n">
-        <v>2435.83537928582</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K31" t="n">
-        <v>2695.464106256384</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L31" t="n">
-        <v>3083.225924339518</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M31" t="n">
-        <v>3502.455516383977</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>3917.151382175684</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>4284.173839190714</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>4574.704274026918</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>4692.417407580353</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>4624.558062538855</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>4624.558062538855</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.879280253237</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.803066567963</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>3861.118578362077</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.701408325116</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.711857427099</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.919278283569</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6691,43 +6691,43 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384032</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6773,31 +6773,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K33" t="n">
-        <v>424.3570907149663</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L33" t="n">
-        <v>562.2602880588585</v>
+        <v>373.2380436180322</v>
       </c>
       <c r="M33" t="n">
-        <v>1154.278642310987</v>
+        <v>965.25639787016</v>
       </c>
       <c r="N33" t="n">
-        <v>1776.374605710324</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O33" t="n">
-        <v>2323.251080710519</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.812354695766</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1035.542420287132</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>930.48582603165</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D34" t="n">
-        <v>780.3691866193143</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E34" t="n">
-        <v>632.4560930369212</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F34" t="n">
-        <v>485.5661455390108</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G34" t="n">
-        <v>318.3519507135896</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520201</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411611</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>2429.412499335697</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>2209.733717050079</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>1920.657503364806</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1665.973015158919</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>1665.973015158919</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>1437.983464260901</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>1217.190885117371</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
         <v>1949.298676890959</v>
@@ -6925,64 +6925,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015205</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>93.84834815160703</v>
+        <v>302.0892292003568</v>
       </c>
       <c r="L36" t="n">
-        <v>584.5806809953584</v>
+        <v>792.8215620441082</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.599035247486</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N36" t="n">
-        <v>1798.694998646823</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
         <v>2553.812354695766</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>942.7640481312354</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>773.8278652033285</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D37" t="n">
-        <v>623.7112257909928</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E37" t="n">
-        <v>490.5833760753517</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F37" t="n">
-        <v>343.6934285774413</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G37" t="n">
-        <v>176.4792337520202</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H37" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L37" t="n">
         <v>820.2210160948589</v>
@@ -7125,22 +7125,22 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2178.382964033126</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1889.306750347853</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1634.622262141966</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1345.205092105005</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>1345.205092105005</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y37" t="n">
-        <v>1124.412512961475</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C38" t="n">
         <v>1949.298676890959</v>
@@ -7165,61 +7165,61 @@
         <v>794.2588208963564</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J38" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287892015</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294976</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
-        <v>94.88738072612962</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K39" t="n">
-        <v>425.3961232894884</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L39" t="n">
-        <v>916.1284561332398</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="M39" t="n">
-        <v>1508.146810385368</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N39" t="n">
-        <v>1741.048401476415</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O39" t="n">
-        <v>2287.924876476609</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P39" t="n">
-        <v>2287.924876476609</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3279.796031603801</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>3110.859848675894</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D40" t="n">
-        <v>2960.743209263559</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E40" t="n">
-        <v>2812.830115681165</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F40" t="n">
-        <v>2665.940168183255</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G40" t="n">
-        <v>2498.725973357834</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H40" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I40" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>2435.835379285818</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K40" t="n">
-        <v>2695.464106256382</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L40" t="n">
-        <v>3083.225924339516</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M40" t="n">
-        <v>3502.455516383975</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N40" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O40" t="n">
-        <v>4284.173839190712</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P40" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q40" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>4692.417407580351</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>4692.417407580351</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>4472.738625294734</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>4183.662411609461</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>3928.977923403574</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>3910.226626475588</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>3682.237075577571</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>3461.444496434041</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7399,43 +7399,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G41" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K41" t="n">
         <v>842.974607438402</v>
       </c>
       <c r="L41" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471234014</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
         <v>4606.950144347201</v>
@@ -7444,19 +7444,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J42" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K42" t="n">
-        <v>242.5353624779756</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L42" t="n">
-        <v>733.2676953217269</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="M42" t="n">
-        <v>1325.286049573855</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.026157035586</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O42" t="n">
-        <v>2098.90263203578</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P42" t="n">
-        <v>2518.486150461856</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q42" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>723.0852658456174</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C43" t="n">
-        <v>723.0852658456174</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="D43" t="n">
-        <v>572.9686264332817</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="E43" t="n">
-        <v>425.0555328508885</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F43" t="n">
-        <v>278.1655853529782</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G43" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L43" t="n">
         <v>820.2210160948589</v>
@@ -7611,10 +7611,10 @@
         <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>1125.526309819387</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y43" t="n">
-        <v>904.7337306758571</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399037</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556096</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148063</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112157</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118414</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160703</v>
@@ -7727,52 +7727,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4949906792617</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K45" t="n">
-        <v>577.4197628504824</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.745369066241</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.123856692793</v>
+        <v>833.5146841555808</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.183242925123</v>
+        <v>1455.610647554917</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.09297316441</v>
+        <v>2002.487122555111</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.09297316441</v>
+        <v>2422.070640981187</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.6990484326819</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C46" t="n">
-        <v>699.762865504775</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6462260924393</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6462260924393</v>
+        <v>528.8310861954467</v>
       </c>
       <c r="F46" t="n">
-        <v>402.756278594529</v>
+        <v>381.9411386975363</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5601793094089</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I46" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074696</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834098</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014445</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591203</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614144</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958342</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752455</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715494</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>916.3263298174766</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.3263298174766</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270191</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>51.31264782909307</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="K14" t="n">
-        <v>51.31264782909267</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>51.31264782911717</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>51.31264782911717</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>51.31264782911637</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>51.31264782911234</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>51.31264782909079</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.31264782909273</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>51.31264782908966</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>51.31264782909039</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11065,10 +11065,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919541</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108371</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>62.34368079027723</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>62.20083648865287</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>54.18219756402154</v>
+        <v>55.88696578547987</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440918</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.61558506066865</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.481994462762</v>
+        <v>191.2348873243413</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484206</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919541</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.481994462762</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.10022571850689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108412</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>98.1453184976063</v>
+        <v>132.2817966595326</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>65.06136363537614</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>59.6223894114267</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>155.3079857870317</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>63.24079278570115</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>157.8125473841246</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>14.6373914280845</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>76.00797063971557</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>267.9592143778848</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>80.97502887069298</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>123.5219778397634</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
         <v>81.80457674440902</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.6809716109906</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>102.5887567730599</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>609284.5696440729</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>609284.569644073</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>609284.5696440729</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>609284.5696440728</v>
+        <v>609284.5696440727</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>609019.6135575785</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.769864283</v>
-      </c>
-      <c r="C2" t="n">
-        <v>821041.7698642827</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>806682.9771185593</v>
+        <v>806682.9771185586</v>
       </c>
       <c r="F2" t="n">
-        <v>806682.9771185591</v>
+        <v>806682.9771185588</v>
       </c>
       <c r="G2" t="n">
-        <v>806682.9771185593</v>
+        <v>806682.9771185588</v>
       </c>
       <c r="H2" t="n">
-        <v>806682.9771185591</v>
+        <v>806682.9771185588</v>
       </c>
       <c r="I2" t="n">
-        <v>806682.9771185592</v>
+        <v>806682.9771185588</v>
       </c>
       <c r="J2" t="n">
+        <v>806682.9771185588</v>
+      </c>
+      <c r="K2" t="n">
+        <v>806682.9771185589</v>
+      </c>
+      <c r="L2" t="n">
         <v>806682.9771185586</v>
-      </c>
-      <c r="K2" t="n">
-        <v>806682.9771185592</v>
-      </c>
-      <c r="L2" t="n">
-        <v>806682.9771185591</v>
       </c>
       <c r="M2" t="n">
         <v>806682.9771185588</v>
       </c>
       <c r="N2" t="n">
-        <v>806682.9771185591</v>
+        <v>806682.9771185587</v>
       </c>
       <c r="O2" t="n">
+        <v>806682.9771185588</v>
+      </c>
+      <c r="P2" t="n">
         <v>806682.9771185589</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26374,31 +26374,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545121</v>
+        <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.222495022918641e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925937</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>2.979545570269693e-09</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.138088009611238e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901363</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>5069.915760662791</v>
+        <v>5069.915760662892</v>
       </c>
       <c r="F4" t="n">
-        <v>5069.915760662794</v>
+        <v>5069.915760662883</v>
       </c>
       <c r="G4" t="n">
-        <v>5069.915760663171</v>
+        <v>5069.915760662911</v>
       </c>
       <c r="H4" t="n">
-        <v>5069.915760663178</v>
+        <v>5069.91576066294</v>
       </c>
       <c r="I4" t="n">
-        <v>5069.915760663169</v>
+        <v>5069.915760662893</v>
       </c>
       <c r="J4" t="n">
-        <v>5069.915760663172</v>
+        <v>5069.915760662914</v>
       </c>
       <c r="K4" t="n">
-        <v>5069.915760662938</v>
+        <v>5069.915760662903</v>
       </c>
       <c r="L4" t="n">
-        <v>5069.91576066282</v>
+        <v>5069.915760662903</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.915760662901</v>
+        <v>5069.915760662921</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.91576066291</v>
+        <v>5069.915760662921</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.915760662911</v>
+        <v>5069.91576066292</v>
       </c>
       <c r="P4" t="n">
-        <v>4457.648636658129</v>
+        <v>5069.915760662893</v>
       </c>
     </row>
     <row r="5">
@@ -26475,25 +26475,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
         <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572384</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572384</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572384</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="K5" t="n">
         <v>100930.0394572386</v>
@@ -26502,16 +26502,16 @@
         <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="N5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="O5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="P5" t="n">
         <v>100930.0394572385</v>
-      </c>
-      <c r="N5" t="n">
-        <v>100930.0394572385</v>
-      </c>
-      <c r="O5" t="n">
-        <v>100930.0394572385</v>
-      </c>
-      <c r="P5" t="n">
-        <v>101146.6105026698</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43991.78380610069</v>
+        <v>-43991.78380610046</v>
       </c>
       <c r="C6" t="n">
-        <v>545976.0954084435</v>
+        <v>545976.0954084439</v>
       </c>
       <c r="D6" t="n">
-        <v>545976.0954084441</v>
+        <v>545976.0954084439</v>
       </c>
       <c r="E6" t="n">
-        <v>-235826.6435538541</v>
+        <v>-236185.6133724982</v>
       </c>
       <c r="F6" t="n">
-        <v>700683.0219006578</v>
+        <v>700324.0520820144</v>
       </c>
       <c r="G6" t="n">
-        <v>700683.0219006615</v>
+        <v>700324.0520820144</v>
       </c>
       <c r="H6" t="n">
-        <v>700683.0219006574</v>
+        <v>700324.0520820143</v>
       </c>
       <c r="I6" t="n">
-        <v>700683.0219006576</v>
+        <v>700324.0520820144</v>
       </c>
       <c r="J6" t="n">
-        <v>524259.8027080632</v>
+        <v>523900.8328894213</v>
       </c>
       <c r="K6" t="n">
-        <v>700683.0219006545</v>
+        <v>700324.0520820145</v>
       </c>
       <c r="L6" t="n">
-        <v>700683.0219006564</v>
+        <v>700324.052082014</v>
       </c>
       <c r="M6" t="n">
-        <v>576375.8105105212</v>
+        <v>576016.8406918771</v>
       </c>
       <c r="N6" t="n">
-        <v>700683.0219006577</v>
+        <v>700324.0520820143</v>
       </c>
       <c r="O6" t="n">
-        <v>700683.0219006576</v>
+        <v>700324.0520820144</v>
       </c>
       <c r="P6" t="n">
-        <v>694930.2079757256</v>
+        <v>700324.0520820145</v>
       </c>
     </row>
   </sheetData>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26752,22 +26752,22 @@
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="K3" t="n">
         <v>1358.041048716386</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26779,7 +26779,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.2973844992991</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.4371604208731e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,16 +26983,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.092726157978177e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>204.0928790283355</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>48.19472341080779</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>27.1382282581113</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>116.0611043592034</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>290.7083104498047</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27669,7 +27669,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>125.2262607352011</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>110.4677639452357</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>223.6632885555904</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>23.87226391480618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481168</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>109.6463534590486</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>13.43676775329516</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.92918017538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28310,13 +28310,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-9.869850635901509e-16</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.55838419092246e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.55838419092246e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.360392837795219e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -31521,22 +31521,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
         <v>255.8615389119866</v>
@@ -31545,19 +31545,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31715,7 +31715,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31834,43 +31834,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>496.2241163658472</v>
+        <v>428.3656332688745</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31916,7 +31916,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31925,16 +31925,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31946,7 +31946,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32071,43 +32071,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>526.6549600581817</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>273.0542121815558</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32153,7 +32153,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32162,16 +32162,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32183,7 +32183,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830404</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293272</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266571</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308818</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745701</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504274</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927609</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426179</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>344.3187317060075</v>
+        <v>459.3304791170301</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086214</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830404</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293272</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266571</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308818</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848206</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745701</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504274</v>
+        <v>640.3146339032908</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927609</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>302.9206235014553</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286938</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R21" t="n">
-        <v>181.3625385436707</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086214</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830404</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293272</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R23" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.8987927266571</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.2113810308818</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735807</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>270.9138770698935</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745701</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504274</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>397.1046860936113</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426179</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982433</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.2575834086214</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N25" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293279</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P26" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665712</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>471.688653684821</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745706</v>
+        <v>271.6268178754087</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>386.6714237372108</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436708</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M28" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,46 +33174,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K29" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S29" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U29" t="n">
         <v>0.436756920190194</v>
@@ -33256,43 +33256,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504301</v>
+        <v>293.7647843155075</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q30" t="n">
-        <v>201.1867228707733</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U30" t="n">
         <v>0.1921756201013754</v>
@@ -33338,7 +33338,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J31" t="n">
         <v>173.1391022273333</v>
@@ -33347,16 +33347,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P31" t="n">
         <v>296.1865264282424</v>
@@ -33368,7 +33368,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T31" t="n">
         <v>10.46359496551969</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293319</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665722</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>277.8505387130986</v>
+        <v>271.6268178754087</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H34" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R34" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T34" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33736,10 +33736,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>199.0463877591103</v>
       </c>
       <c r="L36" t="n">
         <v>634.2436048745725</v>
@@ -33751,10 +33751,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>481.5193127503716</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33970,34 +33970,34 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>306.4674191928273</v>
       </c>
       <c r="N39" t="n">
-        <v>366.5958444985324</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
         <v>372.8719498286953</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34207,22 +34207,22 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I42" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504302</v>
+        <v>306.4674191928273</v>
       </c>
       <c r="N42" t="n">
-        <v>360.3721236608398</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
         <v>694.9967242426205</v>
@@ -34231,10 +34231,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.25758340862161</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200301</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>273.0542121815558</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>605.1570404425759</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>364.8824042825139</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066034</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243778</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883426</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606357</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931357</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044797</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139898116</v>
       </c>
       <c r="K14" t="n">
-        <v>525.6867728671551</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>384.5209261361634</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>133.0724380955343</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066034</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243778</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883426</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606357</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931357</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044797</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607184</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664359</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020545</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
-        <v>796.0449487554833</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>689.759632787005</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134798</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845829</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946959</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>597.998337628409</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094276</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981735</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>210.3443242916772</v>
+        <v>325.3560717026998</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211065968</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642045</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243765</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883411</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209145</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606344</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931346</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044789</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607184</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664359</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020545</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263662</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.759632787005</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>605.157040442597</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845829</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104616</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946959</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>597.998337628409</v>
+        <v>498.1805999812725</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094276</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>160.3243790570109</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426723</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R21" t="n">
-        <v>35.68303457970671</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211065968</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642045</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243765</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883411</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209145</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606344</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931346</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044789</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607184</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L23" t="n">
-        <v>677.0902038955522</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020545</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263662</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
-        <v>689.759632787005</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134798</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845829</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.139375506914</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>133.0724380955346</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946959</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>597.998337628409</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>265.762974010278</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981735</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
-        <v>423.821735783913</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211065968</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642045</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243765</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883411</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209145</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606344</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931346</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044789</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K26" t="n">
-        <v>525.6867728671726</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263669</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134805</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845831</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>333.847214710462</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946964</v>
+        <v>133.0724380955345</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>244.0751792927664</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>35.68303457970686</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606348</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P28" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>333.6317139898129</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L29" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M29" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284117</v>
+        <v>151.6307503934892</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O30" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q30" t="n">
-        <v>61.20494878475183</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K31" t="n">
         <v>262.2512393642057</v>
@@ -36998,19 +36998,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N31" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L32" t="n">
-        <v>677.090203895523</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N32" t="n">
-        <v>744.732300926371</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134837</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>139.2961589332244</v>
+        <v>133.0724380955345</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981769</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606363</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898116</v>
       </c>
       <c r="K35" t="n">
         <v>474.3741250380626</v>
@@ -37320,7 +37320,7 @@
         <v>744.73230092637</v>
       </c>
       <c r="O35" t="n">
-        <v>741.0722806160982</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P35" t="n">
         <v>553.844392613483</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>61.20494878475134</v>
       </c>
       <c r="L36" t="n">
         <v>495.6892250946983</v>
@@ -37399,10 +37399,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>338.9230683059271</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
-        <v>525.686772867153</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>677.0902038955306</v>
       </c>
       <c r="M38" t="n">
         <v>728.2874363020583</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>164.333385270809</v>
       </c>
       <c r="N39" t="n">
-        <v>235.2541324151991</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
         <v>232.8901757426738</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,10 +37785,10 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L41" t="n">
-        <v>677.0902038955297</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311495</v>
       </c>
       <c r="N41" t="n">
         <v>744.73230092637</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284119</v>
+        <v>164.333385270809</v>
       </c>
       <c r="N42" t="n">
-        <v>229.0304115775065</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
         <v>552.4004797981761</v>
@@ -37879,10 +37879,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R42" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366968</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>133.0724380955343</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4139532.681782661</v>
+        <v>4141351.953473703</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287928</v>
+        <v>9964927.03528793</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717228</v>
+        <v>430763.7823717227</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>82.59957183215651</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>6.283679164003906</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>30.60408762095441</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -901,19 +901,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>91.22205962245668</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>46.69972942218443</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>86.85904583823159</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>28.47435476823763</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>64.76935934992291</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>341.762586537471</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8100533453327</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>205.1478855987996</v>
       </c>
     </row>
     <row r="11">
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560524</v>
       </c>
     </row>
     <row r="12">
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>23.94516103140406</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1587,7 +1587,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
-        <v>189.7939625335508</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1660,13 +1660,13 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>199.197056837475</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>70.58824835914055</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>89.53408223745137</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>26.24710713842049</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
         <v>286.1854515484204</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>91.23885045891228</v>
+        <v>23.94516103140406</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>90.75605730520739</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
-        <v>119.8558466642954</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>26.36085357345781</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>2.119387955707412</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>89.53408223745137</v>
+        <v>102.1854574632515</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>84.56702400647403</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>7.729505493042338</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081973</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3441,7 +3441,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>64.44601915223835</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045442</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>89.53408223745137</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1854515484204</v>
+        <v>222.1370025366822</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3900,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>86.27179222793485</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1854515484204</v>
+        <v>153.9036548888877</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>62.95329610410707</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4819944627618</v>
+        <v>160.1053719034618</v>
       </c>
       <c r="U46" t="n">
         <v>286.1854515484204</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.828354776384</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>137.3768927619367</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2690.801940347511</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2690.801940347511</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2690.801940347511</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2690.801940347511</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2690.801940347511</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2338.033285077397</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>1964.567526816317</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y2" t="n">
-        <v>1574.428194840505</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4509,7 +4509,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
         <v>667.7988452409105</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>770.969123535386</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>402.0066065949742</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>402.0066065949742</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2605.005596450084</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2605.005596450084</v>
+        <v>2649.97764715743</v>
       </c>
       <c r="V5" t="n">
-        <v>2273.942709106514</v>
+        <v>2318.914759813859</v>
       </c>
       <c r="W5" t="n">
-        <v>1921.174053836399</v>
+        <v>1966.146104543745</v>
       </c>
       <c r="X5" t="n">
-        <v>1547.708295575319</v>
+        <v>1592.680346282665</v>
       </c>
       <c r="Y5" t="n">
-        <v>1157.568963599508</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.3016257164451</v>
+        <v>291.7960311703079</v>
       </c>
       <c r="C7" t="n">
-        <v>488.3016257164451</v>
+        <v>291.7960311703079</v>
       </c>
       <c r="D7" t="n">
-        <v>338.1849863041093</v>
+        <v>141.6793917579721</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>669.9500905466848</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>669.9500905466848</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X7" t="n">
-        <v>669.9500905466848</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="Y7" t="n">
-        <v>669.9500905466848</v>
+        <v>473.4444960005476</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2631.72549571527</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2631.72549571527</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2631.72549571527</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2300.662608371699</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1947.893953101585</v>
+        <v>2351.934357141989</v>
       </c>
       <c r="X8" t="n">
-        <v>1574.428194840505</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4904,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
         <v>351.9727148150933</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
         <v>1591.032978284208</v>
@@ -5029,7 +5029,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127629</v>
@@ -5050,19 +5050,19 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
@@ -5086,7 +5086,7 @@
         <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="12">
@@ -5132,7 +5132,7 @@
         <v>1062.737405310563</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.791087284249</v>
+        <v>1684.833368709899</v>
       </c>
       <c r="O12" t="n">
         <v>1903.667562284443</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>558.0691298872742</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0691298872742</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9524904749385</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9524904749385</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0625429770282</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G13" t="n">
         <v>93.84834815160703</v>
@@ -5223,28 +5223,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V13" t="n">
-        <v>1477.916894796022</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W13" t="n">
-        <v>1188.499724759061</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X13" t="n">
-        <v>960.5101738610441</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y13" t="n">
-        <v>739.717594717514</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
         <v>1949.298676890959</v>
@@ -5266,46 +5266,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G14" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>424.1437450015205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892025</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
@@ -5314,7 +5314,7 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W14" t="n">
         <v>3468.466124132384</v>
@@ -5323,7 +5323,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K15" t="n">
-        <v>241.496329903453</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L15" t="n">
-        <v>241.496329903453</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>833.5146841555808</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N15" t="n">
-        <v>1455.610647554917</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O15" t="n">
-        <v>2002.487122555111</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P15" t="n">
-        <v>2422.070640981187</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495.0957149476001</v>
+        <v>859.9143700389094</v>
       </c>
       <c r="C16" t="n">
-        <v>326.1595320196932</v>
+        <v>788.6131090700806</v>
       </c>
       <c r="D16" t="n">
-        <v>326.1595320196932</v>
+        <v>638.4964696577448</v>
       </c>
       <c r="E16" t="n">
-        <v>326.1595320196932</v>
+        <v>490.5833760753517</v>
       </c>
       <c r="F16" t="n">
-        <v>235.7210651131766</v>
+        <v>343.6934285774413</v>
       </c>
       <c r="G16" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
         <v>820.2210160948589</v>
@@ -5463,25 +5463,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033126</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747508</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062235</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856348</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.526309819387</v>
+        <v>1308.696500080457</v>
       </c>
       <c r="X16" t="n">
-        <v>897.5367589213699</v>
+        <v>1080.70694918244</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.7441797778398</v>
+        <v>859.9143700389094</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C17" t="n">
         <v>1949.298676890959</v>
@@ -5503,7 +5503,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G17" t="n">
         <v>380.2757138127629</v>
@@ -5515,10 +5515,10 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>424.1437450015196</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892015</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L17" t="n">
         <v>1513.293909294976</v>
@@ -5542,25 +5542,25 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="18">
@@ -5594,7 +5594,7 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
         <v>572.0050724668117</v>
@@ -5603,13 +5603,13 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>1062.737405310563</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N18" t="n">
-        <v>1684.833368709899</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.709843710094</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
         <v>2553.812354695766</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1099.422008959557</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C19" t="n">
-        <v>930.4858260316502</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D19" t="n">
-        <v>780.3691866193144</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E19" t="n">
-        <v>632.4560930369213</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F19" t="n">
-        <v>485.5661455390109</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G19" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H19" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
         <v>93.84834815160703</v>
@@ -5700,25 +5700,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2361.553154294196</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>2335.040924861448</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U19" t="n">
-        <v>2045.964711176174</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V19" t="n">
-        <v>1791.280222970287</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.863052933327</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.863052933327</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y19" t="n">
-        <v>1281.070473789797</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.34422365072</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K20" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5831,25 +5831,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K21" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L21" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="M21" t="n">
-        <v>734.6951238849127</v>
+        <v>833.5146841555804</v>
       </c>
       <c r="N21" t="n">
-        <v>1356.791087284249</v>
+        <v>1455.610647554917</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284443</v>
+        <v>2002.487122555111</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.251080710519</v>
+        <v>2422.070640981186</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476001</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C22" t="n">
-        <v>402.9352599385978</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D22" t="n">
-        <v>402.9352599385978</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E22" t="n">
-        <v>402.9352599385978</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F22" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G22" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H22" t="n">
         <v>93.84834815160703</v>
@@ -5934,28 +5934,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778398</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
         <v>93.84834815160703</v>
@@ -5989,28 +5989,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K23" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052815</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6068,22 +6068,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>373.2380436180322</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>373.2380436180322</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>965.25639787016</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N24" t="n">
-        <v>1587.352361269496</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O24" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
         <v>2553.812354695766</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1099.422008959557</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C25" t="n">
-        <v>930.4858260316502</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="D25" t="n">
-        <v>780.3691866193144</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="E25" t="n">
-        <v>632.4560930369213</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F25" t="n">
-        <v>485.5661455390109</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135898</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H25" t="n">
         <v>176.4792337520202</v>
@@ -6174,25 +6174,25 @@
         <v>2429.412499335695</v>
       </c>
       <c r="S25" t="n">
-        <v>2429.412499335695</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T25" t="n">
-        <v>2429.412499335695</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U25" t="n">
-        <v>2140.336285650421</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V25" t="n">
-        <v>2019.269773868305</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.852603831344</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.863052933327</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y25" t="n">
-        <v>1281.070473789797</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127631</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K26" t="n">
         <v>842.974607438402</v>
@@ -6235,25 +6235,25 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
@@ -6299,28 +6299,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>241.496329903453</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L27" t="n">
-        <v>373.2380436180322</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>965.25639787016</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N27" t="n">
-        <v>1587.352361269496</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O27" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
         <v>2553.812354695766</v>
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.8142640742428</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8780811463359</v>
+        <v>468.4685901259255</v>
       </c>
       <c r="D28" t="n">
-        <v>241.7614417340002</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="E28" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="F28" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L28" t="n">
         <v>820.2210160948589</v>
@@ -6408,28 +6408,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2427.271703420839</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2244.101513159769</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.422730874151</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.346517188878</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.662028982991</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.24485894603</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2553080480127</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4627289044826</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="29">
@@ -6451,19 +6451,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160707</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
         <v>842.974607438402</v>
@@ -6487,10 +6487,10 @@
         <v>4515.534099052815</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6536,31 +6536,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160704</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160704</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L30" t="n">
-        <v>584.5806809953584</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M30" t="n">
-        <v>734.6951238849127</v>
+        <v>1164.023426718939</v>
       </c>
       <c r="N30" t="n">
-        <v>1356.791087284249</v>
+        <v>1786.119390118276</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284443</v>
+        <v>2332.99586511847</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.812354695766</v>
@@ -6600,31 +6600,31 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D31" t="n">
-        <v>326.1595320196932</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E31" t="n">
-        <v>326.1595320196932</v>
+        <v>197.0659819528712</v>
       </c>
       <c r="F31" t="n">
-        <v>326.1595320196932</v>
+        <v>197.0659819528712</v>
       </c>
       <c r="G31" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
         <v>820.2210160948589</v>
@@ -6691,16 +6691,16 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K32" t="n">
         <v>842.974607438402</v>
@@ -6724,10 +6724,10 @@
         <v>4515.534099052815</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6773,10 +6773,10 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
         <v>241.496329903453</v>
@@ -6843,25 +6843,25 @@
         <v>326.1595320196932</v>
       </c>
       <c r="E34" t="n">
-        <v>326.1595320196932</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F34" t="n">
-        <v>326.1595320196932</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G34" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
         <v>820.2210160948589</v>
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6928,61 +6928,61 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>424.1437450015205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
-        <v>893.7741287892025</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>302.0892292003568</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L36" t="n">
-        <v>792.8215620441082</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M36" t="n">
-        <v>1384.839916296236</v>
+        <v>833.5146841555808</v>
       </c>
       <c r="N36" t="n">
-        <v>2006.935879695572</v>
+        <v>1455.610647554917</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.812354695766</v>
+        <v>2002.487122555111</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2422.070640981187</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7089,16 +7089,16 @@
         <v>158.945337194272</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
         <v>820.2210160948589</v>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
         <v>1591.032978284208</v>
@@ -7165,61 +7165,61 @@
         <v>794.2588208963564</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K38" t="n">
         <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7247,31 +7247,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K39" t="n">
-        <v>572.0050724668118</v>
+        <v>504.6016741736171</v>
       </c>
       <c r="L39" t="n">
-        <v>572.0050724668118</v>
+        <v>995.3340070173684</v>
       </c>
       <c r="M39" t="n">
-        <v>734.6951238849127</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="N39" t="n">
-        <v>1356.791087284249</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.667562284443</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.812354695766</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149476001</v>
+        <v>559.79111798976</v>
       </c>
       <c r="C40" t="n">
-        <v>326.1595320196932</v>
+        <v>390.8549350618531</v>
       </c>
       <c r="D40" t="n">
-        <v>326.1595320196932</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="E40" t="n">
-        <v>326.1595320196932</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F40" t="n">
-        <v>326.1595320196932</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L40" t="n">
         <v>820.2210160948589</v>
@@ -7365,19 +7365,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062235</v>
+        <v>1734.323371104395</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856348</v>
+        <v>1479.638882898508</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.526309819387</v>
+        <v>1190.221712861547</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213699</v>
+        <v>962.2321619635298</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778398</v>
+        <v>741.4395828199997</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K41" t="n">
         <v>842.974607438402</v>
@@ -7420,25 +7420,25 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
@@ -7484,31 +7484,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K42" t="n">
-        <v>572.0050724668118</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L42" t="n">
-        <v>572.0050724668118</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M42" t="n">
-        <v>734.6951238849127</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N42" t="n">
-        <v>1356.791087284249</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.812354695766</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476001</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9524904749386</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9524904749386</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9524904749386</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0625429770282</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
         <v>820.2210160948589</v>
@@ -7593,28 +7593,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747508</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062235</v>
+        <v>2273.954262074192</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856348</v>
+        <v>2019.269773868305</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.526309819387</v>
+        <v>1729.852603831344</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213699</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778398</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="44">
@@ -7642,7 +7642,7 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I44" t="n">
         <v>93.84834815160703</v>
@@ -7730,22 +7730,22 @@
         <v>241.496329903453</v>
       </c>
       <c r="K45" t="n">
-        <v>241.496329903453</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L45" t="n">
-        <v>241.496329903453</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M45" t="n">
-        <v>833.5146841555808</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N45" t="n">
-        <v>1455.610647554917</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O45" t="n">
-        <v>2002.487122555111</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.070640981187</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.812354695766</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>676.7441797778398</v>
+        <v>553.0518993509335</v>
       </c>
       <c r="C46" t="n">
-        <v>676.7441797778398</v>
+        <v>553.0518993509335</v>
       </c>
       <c r="D46" t="n">
-        <v>676.7441797778398</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8310861954467</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F46" t="n">
-        <v>381.9411386975363</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G46" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H46" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
         <v>93.84834815160703</v>
@@ -7836,22 +7836,22 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>1958.704181747508</v>
+        <v>2016.660366150841</v>
       </c>
       <c r="U46" t="n">
-        <v>1669.627968062235</v>
+        <v>1727.584152465568</v>
       </c>
       <c r="V46" t="n">
-        <v>1414.943479856348</v>
+        <v>1472.899664259681</v>
       </c>
       <c r="W46" t="n">
-        <v>1125.526309819387</v>
+        <v>1183.482494222721</v>
       </c>
       <c r="X46" t="n">
-        <v>897.5367589213699</v>
+        <v>955.4929433247033</v>
       </c>
       <c r="Y46" t="n">
-        <v>676.7441797778398</v>
+        <v>734.7003641811732</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8227,7 +8227,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119837</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.31264782909045</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.312647829089</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N26" t="n">
-        <v>51.31264782909079</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782908991</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782908991</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>51.31264782909136</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>51.31264782908988</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>62.34368079027723</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>96.65857273948728</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>55.88696578547987</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>43.23559055967969</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>191.2348873243413</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>76.00797063971555</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>57.85941571300496</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>132.2817966595326</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>140.88596752517</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>65.06136363537614</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>76.00797063971555</v>
+        <v>63.3565954139154</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>81.80457674440902</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>61.86693864009514</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>157.8125473841246</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>76.00797063971557</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I37" t="n">
         <v>81.80457674440902</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>76.00797063971555</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
         <v>81.80457674440902</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>64.0484490117382</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>80.97502887069298</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>132.2817966595327</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>102.5887567730599</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.37662255930005</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>609284.5696440728</v>
+        <v>609284.5696440727</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>609284.5696440727</v>
+        <v>609284.5696440728</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>806682.9771185586</v>
+        <v>806682.9771185592</v>
       </c>
       <c r="F2" t="n">
-        <v>806682.9771185588</v>
+        <v>806682.9771185587</v>
       </c>
       <c r="G2" t="n">
-        <v>806682.9771185588</v>
+        <v>806682.9771185592</v>
       </c>
       <c r="H2" t="n">
-        <v>806682.9771185588</v>
+        <v>806682.9771185593</v>
       </c>
       <c r="I2" t="n">
-        <v>806682.9771185588</v>
+        <v>806682.9771185592</v>
       </c>
       <c r="J2" t="n">
-        <v>806682.9771185588</v>
+        <v>806682.9771185589</v>
       </c>
       <c r="K2" t="n">
         <v>806682.9771185589</v>
       </c>
       <c r="L2" t="n">
-        <v>806682.9771185586</v>
+        <v>806682.9771185591</v>
       </c>
       <c r="M2" t="n">
-        <v>806682.9771185588</v>
+        <v>806682.9771185587</v>
       </c>
       <c r="N2" t="n">
-        <v>806682.9771185587</v>
+        <v>806682.9771185589</v>
       </c>
       <c r="O2" t="n">
         <v>806682.9771185588</v>
       </c>
       <c r="P2" t="n">
-        <v>806682.9771185589</v>
+        <v>806682.9771185588</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545122</v>
+        <v>936509.6654545123</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
+        <v>5069.915760662963</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5069.915760662947</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5069.915760662955</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5069.915760662961</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5069.915760662916</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5069.915760662909</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5069.915760662894</v>
+      </c>
+      <c r="L4" t="n">
         <v>5069.915760662892</v>
       </c>
-      <c r="F4" t="n">
-        <v>5069.915760662883</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5069.915760662911</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5069.91576066294</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>5069.915760662893</v>
       </c>
-      <c r="J4" t="n">
-        <v>5069.915760662914</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="N4" t="n">
         <v>5069.915760662903</v>
       </c>
-      <c r="L4" t="n">
-        <v>5069.915760662903</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5069.915760662921</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5069.915760662921</v>
-      </c>
       <c r="O4" t="n">
-        <v>5069.91576066292</v>
+        <v>5069.915760662893</v>
       </c>
       <c r="P4" t="n">
         <v>5069.915760662893</v>
@@ -26481,7 +26481,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="G5" t="n">
         <v>100930.0394572385</v>
@@ -26493,22 +26493,22 @@
         <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
         <v>100930.0394572385</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-43991.78380610046</v>
+        <v>-43991.78380610058</v>
       </c>
       <c r="C6" t="n">
-        <v>545976.0954084439</v>
+        <v>545976.0954084442</v>
       </c>
       <c r="D6" t="n">
         <v>545976.0954084439</v>
       </c>
       <c r="E6" t="n">
-        <v>-236185.6133724982</v>
+        <v>-235862.540535719</v>
       </c>
       <c r="F6" t="n">
-        <v>700324.0520820144</v>
+        <v>700647.1249187929</v>
       </c>
       <c r="G6" t="n">
-        <v>700324.0520820144</v>
+        <v>700647.1249187936</v>
       </c>
       <c r="H6" t="n">
-        <v>700324.0520820143</v>
+        <v>700647.1249187934</v>
       </c>
       <c r="I6" t="n">
-        <v>700324.0520820144</v>
+        <v>700647.1249187934</v>
       </c>
       <c r="J6" t="n">
-        <v>523900.8328894213</v>
+        <v>524223.9057262001</v>
       </c>
       <c r="K6" t="n">
-        <v>700324.0520820145</v>
+        <v>700647.1249187932</v>
       </c>
       <c r="L6" t="n">
-        <v>700324.052082014</v>
+        <v>700647.1249187933</v>
       </c>
       <c r="M6" t="n">
-        <v>576016.8406918771</v>
+        <v>576339.9135286558</v>
       </c>
       <c r="N6" t="n">
-        <v>700324.0520820143</v>
+        <v>700647.1249187932</v>
       </c>
       <c r="O6" t="n">
-        <v>700324.0520820144</v>
+        <v>700647.1249187931</v>
       </c>
       <c r="P6" t="n">
-        <v>700324.0520820145</v>
+        <v>700647.1249187931</v>
       </c>
     </row>
   </sheetData>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992991</v>
+        <v>980.2973844992993</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>241.3232009322006</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>48.19472341080779</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>116.0611043592034</v>
+        <v>86.93835440428914</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>125.2262607352011</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>204.5244380861049</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>59.57491680833758</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>223.6632885555904</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>109.6463534590486</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27912,10 +27912,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>7.478382179942002</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>13.43676775329516</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>13.43676775329516</v>
       </c>
     </row>
     <row r="11">
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28380,13 +28380,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31852,10 +31852,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>428.3656332688745</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>363.6408844187312</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982454</v>
@@ -32080,16 +32080,16 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>439.1579551075595</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
@@ -32098,7 +32098,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.0542121815558</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
         <v>0.436756920190194</v>
@@ -32308,7 +32308,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32320,19 +32320,19 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670522</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>459.3304791170301</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
         <v>0.1921756201013754</v>
@@ -32390,7 +32390,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
@@ -32399,16 +32399,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
         <v>296.1865264282424</v>
@@ -32420,7 +32420,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32545,7 +32545,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32560,28 +32560,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>640.3146339032908</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>273.0542121815567</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32627,7 +32627,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32636,16 +32636,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32657,7 +32657,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M23" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S23" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U23" t="n">
         <v>0.436756920190194</v>
@@ -32782,7 +32782,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>270.9138770698935</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504302</v>
+        <v>467.4901056247184</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U24" t="n">
         <v>0.1921756201013754</v>
@@ -32864,7 +32864,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J25" t="n">
         <v>173.1391022273333</v>
@@ -32873,16 +32873,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P25" t="n">
         <v>296.1865264282424</v>
@@ -32894,7 +32894,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T25" t="n">
         <v>10.46359496551969</v>
@@ -33028,10 +33028,10 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>271.6268178754087</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
         <v>740.1323715504302</v>
@@ -33040,10 +33040,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33262,16 +33262,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>293.7647843155075</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
         <v>759.7214730927639</v>
@@ -33280,10 +33280,10 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982454</v>
+        <v>357.0213665833166</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33739,10 +33739,10 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>199.0463877591103</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
@@ -33754,10 +33754,10 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>273.0542121815558</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33976,16 +33976,16 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>403.6044129846258</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>306.4674191928273</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426205</v>
@@ -33994,7 +33994,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34216,22 +34216,22 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
-        <v>306.4674191928273</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,10 +34450,10 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
         <v>740.1323715504302</v>
@@ -34462,13 +34462,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.0542121815558</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492232</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N11" t="n">
         <v>744.73230092637</v>
@@ -35433,7 +35433,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>297.0239211855412</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>221.0446399742867</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839152</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6317139898116</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
         <v>474.3741250380626</v>
@@ -35667,7 +35667,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R14" t="n">
         <v>127.3573607845842</v>
@@ -35728,16 +35728,16 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>297.0239211855412</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
@@ -35746,7 +35746,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.0724380955343</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>333.6317139898107</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837189</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>325.3560717026998</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
         <v>262.2512393642057</v>
@@ -36050,19 +36050,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>498.1805999812725</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>133.0724380955352</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36287,19 +36287,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N23" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P23" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136732</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>133.0724380955346</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284119</v>
+        <v>325.3560717027</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K25" t="n">
         <v>262.2512393642057</v>
@@ -36524,19 +36524,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,10 +36603,10 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N26" t="n">
-        <v>796.0449487554608</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O26" t="n">
         <v>689.7596327870085</v>
@@ -36676,10 +36676,10 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>133.0724380955345</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
         <v>597.9983376284119</v>
@@ -36688,10 +36688,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136741</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>151.6307503934892</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
         <v>628.3797610094306</v>
@@ -36928,10 +36928,10 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839152</v>
+        <v>223.0469591689864</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>178.6700086136741</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>133.0724380955345</v>
+        <v>133.0724380955346</v>
       </c>
       <c r="M33" t="n">
         <v>597.9983376284119</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>333.6317139898116</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K35" t="n">
         <v>474.3741250380626</v>
@@ -37329,7 +37329,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20494878475134</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
@@ -37402,10 +37402,10 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>133.0724380955343</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L38" t="n">
-        <v>677.0902038955306</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M38" t="n">
         <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554599</v>
       </c>
       <c r="O38" t="n">
         <v>689.7596327870085</v>
@@ -37624,16 +37624,16 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>265.7629740102668</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>164.333385270809</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>552.4004797981761</v>
@@ -37642,7 +37642,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>779.6000841311495</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
         <v>744.73230092637</v>
@@ -37803,7 +37803,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,22 +37864,22 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
-        <v>164.333385270809</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
         <v>597.9983376284119</v>
@@ -38110,13 +38110,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>133.0724380955343</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
